--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_100ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_100ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1952,28 +1952,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>397.6402861425478</v>
+        <v>485.736977575683</v>
       </c>
       <c r="AB2" t="n">
-        <v>544.0689821515613</v>
+        <v>664.6067619221038</v>
       </c>
       <c r="AC2" t="n">
-        <v>492.1438021006279</v>
+        <v>601.1776253457062</v>
       </c>
       <c r="AD2" t="n">
-        <v>397640.2861425478</v>
+        <v>485736.977575683</v>
       </c>
       <c r="AE2" t="n">
-        <v>544068.9821515613</v>
+        <v>664606.7619221038</v>
       </c>
       <c r="AF2" t="n">
         <v>8.842669762654169e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.75</v>
       </c>
       <c r="AH2" t="n">
-        <v>492143.8021006279</v>
+        <v>601177.6253457062</v>
       </c>
     </row>
     <row r="3">
@@ -2058,28 +2058,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>188.8793498967671</v>
+        <v>237.7546364408038</v>
       </c>
       <c r="AB3" t="n">
-        <v>258.4330592974585</v>
+        <v>325.3063825724395</v>
       </c>
       <c r="AC3" t="n">
-        <v>233.7685708312612</v>
+        <v>294.259597990198</v>
       </c>
       <c r="AD3" t="n">
-        <v>188879.3498967671</v>
+        <v>237754.6364408038</v>
       </c>
       <c r="AE3" t="n">
-        <v>258433.0592974585</v>
+        <v>325306.3825724395</v>
       </c>
       <c r="AF3" t="n">
         <v>1.508734619823588e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.40416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>233768.5708312612</v>
+        <v>294259.5979901979</v>
       </c>
     </row>
     <row r="4">
@@ -2164,28 +2164,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>141.3854896195736</v>
+        <v>190.2939305525339</v>
       </c>
       <c r="AB4" t="n">
-        <v>193.4498643849971</v>
+        <v>260.3685509575718</v>
       </c>
       <c r="AC4" t="n">
-        <v>174.9872808367375</v>
+        <v>235.5193418838134</v>
       </c>
       <c r="AD4" t="n">
-        <v>141385.4896195736</v>
+        <v>190293.9305525339</v>
       </c>
       <c r="AE4" t="n">
-        <v>193449.8643849971</v>
+        <v>260368.5509575717</v>
       </c>
       <c r="AF4" t="n">
         <v>1.817239264578168e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.637500000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>174987.2808367375</v>
+        <v>235519.3418838134</v>
       </c>
     </row>
     <row r="5">
@@ -2270,28 +2270,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>141.0696877723341</v>
+        <v>189.9781287052943</v>
       </c>
       <c r="AB5" t="n">
-        <v>193.0177703654099</v>
+        <v>259.9364569379846</v>
       </c>
       <c r="AC5" t="n">
-        <v>174.5964252639318</v>
+        <v>235.1284863110077</v>
       </c>
       <c r="AD5" t="n">
-        <v>141069.6877723341</v>
+        <v>189978.1287052943</v>
       </c>
       <c r="AE5" t="n">
-        <v>193017.7703654099</v>
+        <v>259936.4569379846</v>
       </c>
       <c r="AF5" t="n">
         <v>1.825187308539489e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AH5" t="n">
-        <v>174596.4252639319</v>
+        <v>235128.4863110078</v>
       </c>
     </row>
   </sheetData>
@@ -2567,28 +2567,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>262.4922696958949</v>
+        <v>330.2561137466517</v>
       </c>
       <c r="AB2" t="n">
-        <v>359.153503739564</v>
+        <v>451.8709846996185</v>
       </c>
       <c r="AC2" t="n">
-        <v>324.8763974177677</v>
+        <v>408.7450521247964</v>
       </c>
       <c r="AD2" t="n">
-        <v>262492.2696958949</v>
+        <v>330256.1137466517</v>
       </c>
       <c r="AE2" t="n">
-        <v>359153.503739564</v>
+        <v>451870.9846996185</v>
       </c>
       <c r="AF2" t="n">
         <v>1.24287524267127e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.81666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>324876.3974177677</v>
+        <v>408745.0521247964</v>
       </c>
     </row>
     <row r="3">
@@ -2673,28 +2673,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>139.41567181454</v>
+        <v>187.7842521462992</v>
       </c>
       <c r="AB3" t="n">
-        <v>190.7546727619232</v>
+        <v>256.934698242966</v>
       </c>
       <c r="AC3" t="n">
-        <v>172.5493145194438</v>
+        <v>232.413211252846</v>
       </c>
       <c r="AD3" t="n">
-        <v>139415.6718145401</v>
+        <v>187784.2521462992</v>
       </c>
       <c r="AE3" t="n">
-        <v>190754.6727619232</v>
+        <v>256934.698242966</v>
       </c>
       <c r="AF3" t="n">
         <v>1.919728077529424e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.945833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>172549.3145194438</v>
+        <v>232413.211252846</v>
       </c>
     </row>
     <row r="4">
@@ -2779,28 +2779,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>137.4864547998582</v>
+        <v>185.8550351316173</v>
       </c>
       <c r="AB4" t="n">
-        <v>188.1150329313889</v>
+        <v>254.2950584124317</v>
       </c>
       <c r="AC4" t="n">
-        <v>170.1615982095771</v>
+        <v>230.0254949429793</v>
       </c>
       <c r="AD4" t="n">
-        <v>137486.4547998582</v>
+        <v>185855.0351316173</v>
       </c>
       <c r="AE4" t="n">
-        <v>188115.0329313889</v>
+        <v>254295.0584124317</v>
       </c>
       <c r="AF4" t="n">
         <v>1.953484165201378e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.791666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>170161.5982095771</v>
+        <v>230025.4949429793</v>
       </c>
     </row>
   </sheetData>
@@ -3076,28 +3076,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>150.1326362071132</v>
+        <v>196.8427250980408</v>
       </c>
       <c r="AB2" t="n">
-        <v>205.418096242935</v>
+        <v>269.3289005671547</v>
       </c>
       <c r="AC2" t="n">
-        <v>185.8132814436766</v>
+        <v>243.6245283025903</v>
       </c>
       <c r="AD2" t="n">
-        <v>150132.6362071132</v>
+        <v>196842.7250980408</v>
       </c>
       <c r="AE2" t="n">
-        <v>205418.096242935</v>
+        <v>269328.9005671547</v>
       </c>
       <c r="AF2" t="n">
         <v>2.385033691440774e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.05</v>
       </c>
       <c r="AH2" t="n">
-        <v>185813.2814436766</v>
+        <v>243624.5283025903</v>
       </c>
     </row>
   </sheetData>
@@ -3373,28 +3373,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>147.1210888894625</v>
+        <v>194.5339395318563</v>
       </c>
       <c r="AB2" t="n">
-        <v>201.2975643428364</v>
+        <v>266.1699182990722</v>
       </c>
       <c r="AC2" t="n">
-        <v>182.0860073249193</v>
+        <v>240.7670348685131</v>
       </c>
       <c r="AD2" t="n">
-        <v>147121.0888894625</v>
+        <v>194533.9395318563</v>
       </c>
       <c r="AE2" t="n">
-        <v>201297.5643428364</v>
+        <v>266169.9182990722</v>
       </c>
       <c r="AF2" t="n">
         <v>2.119043648324537e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.795833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>182086.0073249193</v>
+        <v>240767.0348685131</v>
       </c>
     </row>
     <row r="3">
@@ -3479,28 +3479,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>141.7908124064163</v>
+        <v>189.1021778223248</v>
       </c>
       <c r="AB3" t="n">
-        <v>194.0044449035342</v>
+        <v>258.7379422956807</v>
       </c>
       <c r="AC3" t="n">
-        <v>175.4889329689443</v>
+        <v>234.0443562240391</v>
       </c>
       <c r="AD3" t="n">
-        <v>141790.8124064163</v>
+        <v>189102.1778223249</v>
       </c>
       <c r="AE3" t="n">
-        <v>194004.4449035343</v>
+        <v>258737.9422956808</v>
       </c>
       <c r="AF3" t="n">
         <v>2.226355916592065e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.324999999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>175488.9329689443</v>
+        <v>234044.3562240392</v>
       </c>
     </row>
   </sheetData>
@@ -3776,28 +3776,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>161.1179270790671</v>
+        <v>207.3409886460288</v>
       </c>
       <c r="AB2" t="n">
-        <v>220.448655850764</v>
+        <v>283.6930879042047</v>
       </c>
       <c r="AC2" t="n">
-        <v>199.4093455380621</v>
+        <v>256.6178177604605</v>
       </c>
       <c r="AD2" t="n">
-        <v>161117.9270790671</v>
+        <v>207340.9886460288</v>
       </c>
       <c r="AE2" t="n">
-        <v>220448.655850764</v>
+        <v>283693.0879042047</v>
       </c>
       <c r="AF2" t="n">
         <v>2.473040643140279e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.1</v>
       </c>
       <c r="AH2" t="n">
-        <v>199409.3455380621</v>
+        <v>256617.8177604605</v>
       </c>
     </row>
   </sheetData>
@@ -4073,28 +4073,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>290.6866458124857</v>
+        <v>368.323909984319</v>
       </c>
       <c r="AB2" t="n">
-        <v>397.7302929903714</v>
+        <v>503.9570229446364</v>
       </c>
       <c r="AC2" t="n">
-        <v>359.7714720453417</v>
+        <v>455.8600719829237</v>
       </c>
       <c r="AD2" t="n">
-        <v>290686.6458124857</v>
+        <v>368323.909984319</v>
       </c>
       <c r="AE2" t="n">
-        <v>397730.2929903714</v>
+        <v>503957.0229446364</v>
       </c>
       <c r="AF2" t="n">
         <v>1.144596273996892e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.64166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>359771.4720453417</v>
+        <v>455860.0719829237</v>
       </c>
     </row>
     <row r="3">
@@ -4179,28 +4179,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>155.0948835054219</v>
+        <v>193.8974439118048</v>
       </c>
       <c r="AB3" t="n">
-        <v>212.2076619153777</v>
+        <v>265.2990369115132</v>
       </c>
       <c r="AC3" t="n">
-        <v>191.9548604975588</v>
+        <v>239.9792691782928</v>
       </c>
       <c r="AD3" t="n">
-        <v>155094.8835054219</v>
+        <v>193897.4439118048</v>
       </c>
       <c r="AE3" t="n">
-        <v>212207.6619153777</v>
+        <v>265299.0369115131</v>
       </c>
       <c r="AF3" t="n">
         <v>1.815354305532705e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.233333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>191954.8604975588</v>
+        <v>239979.2691782928</v>
       </c>
     </row>
     <row r="4">
@@ -4285,28 +4285,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>138.1953075718732</v>
+        <v>186.7057856472256</v>
       </c>
       <c r="AB4" t="n">
-        <v>189.0849165664366</v>
+        <v>255.4590928003502</v>
       </c>
       <c r="AC4" t="n">
-        <v>171.0389175117363</v>
+        <v>231.0784355226477</v>
       </c>
       <c r="AD4" t="n">
-        <v>138195.3075718732</v>
+        <v>186705.7856472256</v>
       </c>
       <c r="AE4" t="n">
-        <v>189084.9165664366</v>
+        <v>255459.0928003502</v>
       </c>
       <c r="AF4" t="n">
         <v>1.919646179117425e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.729166666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>171038.9175117363</v>
+        <v>231078.4355226477</v>
       </c>
     </row>
   </sheetData>
@@ -4582,28 +4582,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>163.1074283409516</v>
+        <v>227.3657260452886</v>
       </c>
       <c r="AB2" t="n">
-        <v>223.1707792478742</v>
+        <v>311.0918170429232</v>
       </c>
       <c r="AC2" t="n">
-        <v>201.8716732986771</v>
+        <v>281.4016506445461</v>
       </c>
       <c r="AD2" t="n">
-        <v>163107.4283409516</v>
+        <v>227365.7260452886</v>
       </c>
       <c r="AE2" t="n">
-        <v>223170.7792478742</v>
+        <v>311091.8170429232</v>
       </c>
       <c r="AF2" t="n">
         <v>2.505458720310595e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.99166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>201871.6732986771</v>
+        <v>281401.6506445461</v>
       </c>
     </row>
   </sheetData>
@@ -4879,28 +4879,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>199.1817584588747</v>
+        <v>256.7124211604323</v>
       </c>
       <c r="AB2" t="n">
-        <v>272.5292692023151</v>
+        <v>351.2452599842567</v>
       </c>
       <c r="AC2" t="n">
-        <v>246.5194582469576</v>
+        <v>317.7229053472828</v>
       </c>
       <c r="AD2" t="n">
-        <v>199181.7584588747</v>
+        <v>256712.4211604323</v>
       </c>
       <c r="AE2" t="n">
-        <v>272529.2692023151</v>
+        <v>351245.2599842568</v>
       </c>
       <c r="AF2" t="n">
         <v>1.6020725258252e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.65416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>246519.4582469576</v>
+        <v>317722.9053472828</v>
       </c>
     </row>
     <row r="3">
@@ -4985,28 +4985,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>134.460246891158</v>
+        <v>182.3683003903418</v>
       </c>
       <c r="AB3" t="n">
-        <v>183.9744417638369</v>
+        <v>249.5243541155406</v>
       </c>
       <c r="AC3" t="n">
-        <v>166.4161792516987</v>
+        <v>225.7100999684564</v>
       </c>
       <c r="AD3" t="n">
-        <v>134460.246891158</v>
+        <v>182368.3003903418</v>
       </c>
       <c r="AE3" t="n">
-        <v>183974.4417638369</v>
+        <v>249524.3541155406</v>
       </c>
       <c r="AF3" t="n">
         <v>2.078835541735024e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.983333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>166416.1792516987</v>
+        <v>225710.0999684564</v>
       </c>
     </row>
   </sheetData>
@@ -5282,28 +5282,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>246.4826275793845</v>
+        <v>304.3560157910437</v>
       </c>
       <c r="AB2" t="n">
-        <v>337.2484051000331</v>
+        <v>416.4333280450767</v>
       </c>
       <c r="AC2" t="n">
-        <v>305.0618906484958</v>
+        <v>376.6895156843004</v>
       </c>
       <c r="AD2" t="n">
-        <v>246482.6275793845</v>
+        <v>304356.0157910436</v>
       </c>
       <c r="AE2" t="n">
-        <v>337248.4051000331</v>
+        <v>416433.3280450767</v>
       </c>
       <c r="AF2" t="n">
         <v>1.349051763921733e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.06666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>305061.8906484958</v>
+        <v>376689.5156843005</v>
       </c>
     </row>
     <row r="3">
@@ -5388,28 +5388,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>136.4086922146071</v>
+        <v>184.6299789629753</v>
       </c>
       <c r="AB3" t="n">
-        <v>186.6403906147195</v>
+        <v>252.6188825168328</v>
       </c>
       <c r="AC3" t="n">
-        <v>168.8276936859367</v>
+        <v>228.5092909223282</v>
       </c>
       <c r="AD3" t="n">
-        <v>136408.6922146071</v>
+        <v>184629.9789629754</v>
       </c>
       <c r="AE3" t="n">
-        <v>186640.3906147195</v>
+        <v>252618.8825168328</v>
       </c>
       <c r="AF3" t="n">
         <v>1.992738550997088e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.845833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>168827.6936859367</v>
+        <v>228509.2909223282</v>
       </c>
     </row>
     <row r="4">
@@ -5494,28 +5494,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>136.2209382902831</v>
+        <v>184.4422250386514</v>
       </c>
       <c r="AB4" t="n">
-        <v>186.3834974123411</v>
+        <v>252.3619893144543</v>
       </c>
       <c r="AC4" t="n">
-        <v>168.5953180102413</v>
+        <v>228.2769152466328</v>
       </c>
       <c r="AD4" t="n">
-        <v>136220.9382902831</v>
+        <v>184442.2250386514</v>
       </c>
       <c r="AE4" t="n">
-        <v>186383.4974123411</v>
+        <v>252361.9893144543</v>
       </c>
       <c r="AF4" t="n">
         <v>1.999295560197711e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.816666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>168595.3180102413</v>
+        <v>228276.9152466328</v>
       </c>
     </row>
   </sheetData>
@@ -5791,28 +5791,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>357.1454284460619</v>
+        <v>444.9767778182218</v>
       </c>
       <c r="AB2" t="n">
-        <v>488.662131344193</v>
+        <v>608.8368584008435</v>
       </c>
       <c r="AC2" t="n">
-        <v>442.0249033703114</v>
+        <v>550.7303231429639</v>
       </c>
       <c r="AD2" t="n">
-        <v>357145.4284460619</v>
+        <v>444976.7778182218</v>
       </c>
       <c r="AE2" t="n">
-        <v>488662.131344193</v>
+        <v>608836.8584008436</v>
       </c>
       <c r="AF2" t="n">
         <v>9.663976804318567e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.57916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>442024.9033703114</v>
+        <v>550730.3231429639</v>
       </c>
     </row>
     <row r="3">
@@ -5897,28 +5897,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>181.3448811206414</v>
+        <v>230.0917361967923</v>
       </c>
       <c r="AB3" t="n">
-        <v>248.1240667206654</v>
+        <v>314.8216643952887</v>
       </c>
       <c r="AC3" t="n">
-        <v>224.443454037232</v>
+        <v>284.7755266004768</v>
       </c>
       <c r="AD3" t="n">
-        <v>181344.8811206414</v>
+        <v>230091.7361967922</v>
       </c>
       <c r="AE3" t="n">
-        <v>248124.0667206654</v>
+        <v>314821.6643952887</v>
       </c>
       <c r="AF3" t="n">
         <v>1.592460324181583e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.0625</v>
       </c>
       <c r="AH3" t="n">
-        <v>224443.454037232</v>
+        <v>284775.5266004768</v>
       </c>
     </row>
     <row r="4">
@@ -6003,28 +6003,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>139.5561370453206</v>
+        <v>188.3361465103952</v>
       </c>
       <c r="AB4" t="n">
-        <v>190.9468634875657</v>
+        <v>257.6898244597826</v>
       </c>
       <c r="AC4" t="n">
-        <v>172.7231628319724</v>
+        <v>233.0962692833562</v>
       </c>
       <c r="AD4" t="n">
-        <v>139556.1370453206</v>
+        <v>188336.1465103952</v>
       </c>
       <c r="AE4" t="n">
-        <v>190946.8634875657</v>
+        <v>257689.8244597827</v>
       </c>
       <c r="AF4" t="n">
         <v>1.861459598937685e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.608333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>172723.1628319724</v>
+        <v>233096.2692833562</v>
       </c>
     </row>
     <row r="5">
@@ -6109,28 +6109,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>139.7966883848678</v>
+        <v>188.5766978499423</v>
       </c>
       <c r="AB5" t="n">
-        <v>191.27599644271</v>
+        <v>258.018957414927</v>
       </c>
       <c r="AC5" t="n">
-        <v>173.0208837998189</v>
+        <v>233.3939902512027</v>
       </c>
       <c r="AD5" t="n">
-        <v>139796.6883848678</v>
+        <v>188576.6978499423</v>
       </c>
       <c r="AE5" t="n">
-        <v>191275.99644271</v>
+        <v>258018.957414927</v>
       </c>
       <c r="AF5" t="n">
         <v>1.86134423112864e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.608333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>173020.8837998189</v>
+        <v>233393.9902512027</v>
       </c>
     </row>
   </sheetData>
@@ -6406,28 +6406,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>164.8083160631458</v>
+        <v>212.339706201471</v>
       </c>
       <c r="AB2" t="n">
-        <v>225.4980088672494</v>
+        <v>290.532553791412</v>
       </c>
       <c r="AC2" t="n">
-        <v>203.9767953894672</v>
+        <v>262.8045346226454</v>
       </c>
       <c r="AD2" t="n">
-        <v>164808.3160631458</v>
+        <v>212339.706201471</v>
       </c>
       <c r="AE2" t="n">
-        <v>225498.0088672494</v>
+        <v>290532.553791412</v>
       </c>
       <c r="AF2" t="n">
         <v>1.949952691652863e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.24583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>203976.7953894672</v>
+        <v>262804.5346226454</v>
       </c>
     </row>
     <row r="3">
@@ -6512,28 +6512,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>142.6838526411098</v>
+        <v>180.7296662090099</v>
       </c>
       <c r="AB3" t="n">
-        <v>195.2263419507958</v>
+        <v>247.2823025372053</v>
       </c>
       <c r="AC3" t="n">
-        <v>176.5942138769589</v>
+        <v>223.6820266460176</v>
       </c>
       <c r="AD3" t="n">
-        <v>142683.8526411098</v>
+        <v>180729.6662090099</v>
       </c>
       <c r="AE3" t="n">
-        <v>195226.3419507958</v>
+        <v>247282.3025372053</v>
       </c>
       <c r="AF3" t="n">
         <v>2.171008694534589e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>176594.2138769589</v>
+        <v>223682.0266460176</v>
       </c>
     </row>
   </sheetData>
@@ -6809,28 +6809,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>141.2900816864732</v>
+        <v>188.2947485297066</v>
       </c>
       <c r="AB2" t="n">
-        <v>193.3193230418281</v>
+        <v>257.6331819162546</v>
       </c>
       <c r="AC2" t="n">
-        <v>174.8691981761447</v>
+        <v>233.0450326246842</v>
       </c>
       <c r="AD2" t="n">
-        <v>141290.0816864732</v>
+        <v>188294.7485297066</v>
       </c>
       <c r="AE2" t="n">
-        <v>193319.3230418281</v>
+        <v>257633.1819162546</v>
       </c>
       <c r="AF2" t="n">
         <v>2.318133254606141e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.799999999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>174869.1981761447</v>
+        <v>233045.0326246842</v>
       </c>
     </row>
     <row r="3">
@@ -6915,28 +6915,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>141.3327814927677</v>
+        <v>188.3374483360011</v>
       </c>
       <c r="AB3" t="n">
-        <v>193.3777468005828</v>
+        <v>257.6916056750093</v>
       </c>
       <c r="AC3" t="n">
-        <v>174.9220460533621</v>
+        <v>233.0978805019016</v>
       </c>
       <c r="AD3" t="n">
-        <v>141332.7814927677</v>
+        <v>188337.4483360011</v>
       </c>
       <c r="AE3" t="n">
-        <v>193377.7468005828</v>
+        <v>257691.6056750093</v>
       </c>
       <c r="AF3" t="n">
         <v>2.324402162878444e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.770833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>174922.0460533621</v>
+        <v>233097.8805019016</v>
       </c>
     </row>
   </sheetData>
@@ -11569,28 +11569,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>150.6001635054488</v>
+        <v>197.0626807860053</v>
       </c>
       <c r="AB2" t="n">
-        <v>206.0577877183661</v>
+        <v>269.6298536431877</v>
       </c>
       <c r="AC2" t="n">
-        <v>186.3919216625054</v>
+        <v>243.8967588394371</v>
       </c>
       <c r="AD2" t="n">
-        <v>150600.1635054488</v>
+        <v>197062.6807860053</v>
       </c>
       <c r="AE2" t="n">
-        <v>206057.7877183661</v>
+        <v>269629.8536431877</v>
       </c>
       <c r="AF2" t="n">
         <v>2.431274504869323e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.49166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>186391.9216625054</v>
+        <v>243896.7588394371</v>
       </c>
     </row>
   </sheetData>
@@ -11866,28 +11866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>186.3237129543457</v>
+        <v>250.1477211196675</v>
       </c>
       <c r="AB2" t="n">
-        <v>254.9363240860946</v>
+        <v>342.263147774361</v>
       </c>
       <c r="AC2" t="n">
-        <v>230.6055591207701</v>
+        <v>309.5980333202229</v>
       </c>
       <c r="AD2" t="n">
-        <v>186323.7129543457</v>
+        <v>250147.7211196675</v>
       </c>
       <c r="AE2" t="n">
-        <v>254936.3240860946</v>
+        <v>342263.147774361</v>
       </c>
       <c r="AF2" t="n">
         <v>2.484600198828477e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.57916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>230605.5591207701</v>
+        <v>309598.0333202229</v>
       </c>
     </row>
   </sheetData>
@@ -12163,28 +12163,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>222.6350446176787</v>
+        <v>280.2903359632802</v>
       </c>
       <c r="AB2" t="n">
-        <v>304.6190900107354</v>
+        <v>383.5056032018679</v>
       </c>
       <c r="AC2" t="n">
-        <v>275.5466715957789</v>
+        <v>346.9043666857755</v>
       </c>
       <c r="AD2" t="n">
-        <v>222635.0446176787</v>
+        <v>280290.3359632802</v>
       </c>
       <c r="AE2" t="n">
-        <v>304619.0900107354</v>
+        <v>383505.6032018679</v>
       </c>
       <c r="AF2" t="n">
         <v>1.464590846226077e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.375</v>
       </c>
       <c r="AH2" t="n">
-        <v>275546.6715957789</v>
+        <v>346904.3666857755</v>
       </c>
     </row>
     <row r="3">
@@ -12269,28 +12269,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>135.0212014153683</v>
+        <v>183.0892119576728</v>
       </c>
       <c r="AB3" t="n">
-        <v>184.7419644914281</v>
+        <v>250.510737126336</v>
       </c>
       <c r="AC3" t="n">
-        <v>167.1104506873937</v>
+        <v>226.6023439690991</v>
       </c>
       <c r="AD3" t="n">
-        <v>135021.2014153683</v>
+        <v>183089.2119576728</v>
       </c>
       <c r="AE3" t="n">
-        <v>184741.9644914281</v>
+        <v>250510.737126336</v>
       </c>
       <c r="AF3" t="n">
         <v>2.041623371723838e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.879166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>167110.4506873937</v>
+        <v>226602.3439690991</v>
       </c>
     </row>
     <row r="4">
@@ -12375,28 +12375,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>135.2859099917707</v>
+        <v>183.3539205340752</v>
       </c>
       <c r="AB4" t="n">
-        <v>185.1041504437798</v>
+        <v>250.8729230786877</v>
       </c>
       <c r="AC4" t="n">
-        <v>167.4380701207843</v>
+        <v>226.9299634024897</v>
       </c>
       <c r="AD4" t="n">
-        <v>135285.9099917707</v>
+        <v>183353.9205340752</v>
       </c>
       <c r="AE4" t="n">
-        <v>185104.1504437798</v>
+        <v>250872.9230786877</v>
       </c>
       <c r="AF4" t="n">
         <v>2.041405886225008e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.879166666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>167438.0701207843</v>
+        <v>226929.9634024897</v>
       </c>
     </row>
   </sheetData>
@@ -12672,28 +12672,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>322.5272173586272</v>
+        <v>400.4178477023066</v>
       </c>
       <c r="AB2" t="n">
-        <v>441.2959676866794</v>
+        <v>547.869364414991</v>
       </c>
       <c r="AC2" t="n">
-        <v>399.1792998934426</v>
+        <v>495.5814812147058</v>
       </c>
       <c r="AD2" t="n">
-        <v>322527.2173586272</v>
+        <v>400417.8477023066</v>
       </c>
       <c r="AE2" t="n">
-        <v>441295.9676866794</v>
+        <v>547869.364414991</v>
       </c>
       <c r="AF2" t="n">
         <v>1.051063119909854e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.57916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>399179.2998934427</v>
+        <v>495581.4812147059</v>
       </c>
     </row>
     <row r="3">
@@ -12778,28 +12778,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>162.9647810069757</v>
+        <v>211.6464249717746</v>
       </c>
       <c r="AB3" t="n">
-        <v>222.9756028723722</v>
+        <v>289.5839758275326</v>
       </c>
       <c r="AC3" t="n">
-        <v>201.6951242825212</v>
+        <v>261.9464876083009</v>
       </c>
       <c r="AD3" t="n">
-        <v>162964.7810069757</v>
+        <v>211646.4249717747</v>
       </c>
       <c r="AE3" t="n">
-        <v>222975.6028723722</v>
+        <v>289583.9758275326</v>
       </c>
       <c r="AF3" t="n">
         <v>1.699615679240963e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.637499999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>201695.1242825212</v>
+        <v>261946.4876083009</v>
       </c>
     </row>
     <row r="4">
@@ -12884,28 +12884,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>138.9928574635535</v>
+        <v>187.6403360095717</v>
       </c>
       <c r="AB4" t="n">
-        <v>190.176159513651</v>
+        <v>256.7377858355637</v>
       </c>
       <c r="AC4" t="n">
-        <v>172.026013763638</v>
+        <v>232.2350918892378</v>
       </c>
       <c r="AD4" t="n">
-        <v>138992.8574635535</v>
+        <v>187640.3360095717</v>
       </c>
       <c r="AE4" t="n">
-        <v>190176.159513651</v>
+        <v>256737.7858355637</v>
       </c>
       <c r="AF4" t="n">
         <v>1.887723827168888e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.674999999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>172026.013763638</v>
+        <v>232235.0918892378</v>
       </c>
     </row>
   </sheetData>
@@ -13181,28 +13181,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>224.8838410574334</v>
+        <v>306.1166998582897</v>
       </c>
       <c r="AB2" t="n">
-        <v>307.6959925095032</v>
+        <v>418.8423736617817</v>
       </c>
       <c r="AC2" t="n">
-        <v>278.3299188385251</v>
+        <v>378.8686453684639</v>
       </c>
       <c r="AD2" t="n">
-        <v>224883.8410574334</v>
+        <v>306116.6998582897</v>
       </c>
       <c r="AE2" t="n">
-        <v>307695.9925095033</v>
+        <v>418842.3736617817</v>
       </c>
       <c r="AF2" t="n">
         <v>2.340215047616651e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.97916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>278329.9188385251</v>
+        <v>378868.6453684639</v>
       </c>
     </row>
   </sheetData>
@@ -13478,28 +13478,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>142.2857743394123</v>
+        <v>189.5013136419843</v>
       </c>
       <c r="AB2" t="n">
-        <v>194.6816736564384</v>
+        <v>259.2840575327681</v>
       </c>
       <c r="AC2" t="n">
-        <v>176.1015279601681</v>
+        <v>234.5383509893767</v>
       </c>
       <c r="AD2" t="n">
-        <v>142285.7743394123</v>
+        <v>189501.3136419843</v>
       </c>
       <c r="AE2" t="n">
-        <v>194681.6736564384</v>
+        <v>259284.0575327682</v>
       </c>
       <c r="AF2" t="n">
         <v>2.25268042164941e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.616666666666665</v>
       </c>
       <c r="AH2" t="n">
-        <v>176101.5279601681</v>
+        <v>234538.3509893767</v>
       </c>
     </row>
     <row r="3">
@@ -13584,28 +13584,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>141.2319883103911</v>
+        <v>188.3460423864779</v>
       </c>
       <c r="AB3" t="n">
-        <v>193.2398371217738</v>
+        <v>257.7033644340143</v>
       </c>
       <c r="AC3" t="n">
-        <v>174.7972982807411</v>
+        <v>233.1085170214507</v>
       </c>
       <c r="AD3" t="n">
-        <v>141231.9883103911</v>
+        <v>188346.0423864779</v>
       </c>
       <c r="AE3" t="n">
-        <v>193239.8371217738</v>
+        <v>257703.3644340143</v>
       </c>
       <c r="AF3" t="n">
         <v>2.280439308119025e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>174797.2982807411</v>
+        <v>233108.5170214507</v>
       </c>
     </row>
   </sheetData>
@@ -13881,28 +13881,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>177.3172746079514</v>
+        <v>234.6127968839029</v>
       </c>
       <c r="AB2" t="n">
-        <v>242.6133178045469</v>
+        <v>321.0075790825111</v>
       </c>
       <c r="AC2" t="n">
-        <v>219.4586432632813</v>
+        <v>290.3710662719384</v>
       </c>
       <c r="AD2" t="n">
-        <v>177317.2746079514</v>
+        <v>234612.7968839029</v>
       </c>
       <c r="AE2" t="n">
-        <v>242613.3178045469</v>
+        <v>321007.5790825111</v>
       </c>
       <c r="AF2" t="n">
         <v>1.754762232029917e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.99166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>219458.6432632813</v>
+        <v>290371.0662719384</v>
       </c>
     </row>
     <row r="3">
@@ -13987,28 +13987,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>143.1354880719236</v>
+        <v>181.3221254794882</v>
       </c>
       <c r="AB3" t="n">
-        <v>195.844289471984</v>
+        <v>248.0929314485317</v>
       </c>
       <c r="AC3" t="n">
-        <v>177.1531853540199</v>
+        <v>224.4152902717721</v>
       </c>
       <c r="AD3" t="n">
-        <v>143135.4880719236</v>
+        <v>181322.1254794882</v>
       </c>
       <c r="AE3" t="n">
-        <v>195844.289471984</v>
+        <v>248092.9314485317</v>
       </c>
       <c r="AF3" t="n">
         <v>2.127747567447936e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.0625</v>
       </c>
       <c r="AH3" t="n">
-        <v>177153.1853540199</v>
+        <v>224415.2902717721</v>
       </c>
     </row>
   </sheetData>
